--- a/doc/详情页字段梳理.xlsx
+++ b/doc/详情页字段梳理.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="7280" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="5180" yWindow="5780" windowWidth="22620" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="262">
   <si>
     <t>进件状态</t>
     <rPh sb="0" eb="1">
@@ -1603,6 +1603,531 @@
   </si>
   <si>
     <t>关系 0|父母 1|同事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_repay_plan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期数（目前仅一期）</t>
+    <rPh sb="0" eb="1">
+      <t>qi shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mu qian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_repay_plan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repay_end_date</t>
+  </si>
+  <si>
+    <t>截止日期（目前仅一期，不含产品宽限期）</t>
+    <rPh sb="0" eb="1">
+      <t>jie zhi ri qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mu qian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi qi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu han</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chan pin</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kuan xian qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产分级</t>
+    <rPh sb="0" eb="1">
+      <t>zi chan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收时间</t>
+    <rPh sb="0" eb="1">
+      <t>ying shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收总额</t>
+    <rPh sb="0" eb="1">
+      <t>ying shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款期次</t>
+    <rPh sb="0" eb="1">
+      <t>dai kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi ci</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余应换本金</t>
+    <rPh sb="0" eb="1">
+      <t>sheng yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying huan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ben jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余应还利息</t>
+    <rPh sb="0" eb="1">
+      <t>sheng yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying huan li xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余罚息</t>
+    <rPh sb="0" eb="1">
+      <t>sheng yu fa xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余罚金</t>
+    <rPh sb="0" eb="1">
+      <t>sheng yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余复利</t>
+    <rPh sb="0" eb="1">
+      <t>sheng yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减免费用</t>
+    <rPh sb="0" eb="1">
+      <t>j jian mian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei yong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费用</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei yong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_repay_plan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_repay_plan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repay_start_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款开始时间（目前仅一期）</t>
+    <rPh sb="0" eb="1">
+      <t>huan kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mu qian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_principal - act_principal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_interest - act_interest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_penalty_interest - act_penalty_interest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <rPh sb="0" eb="1">
+      <t>fa xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_other - act_other</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收金额</t>
+    <rPh sb="0" eb="1">
+      <t>shi shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin' e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余应收金额</t>
+    <rPh sb="0" eb="1">
+      <t>sheng yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying shou jin e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收本金</t>
+    <rPh sb="0" eb="1">
+      <t>shi shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ben jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收利息</t>
+    <rPh sb="0" eb="1">
+      <t>shi shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收罚息</t>
+    <rPh sb="0" eb="1">
+      <t>shi shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收罚金</t>
+    <rPh sb="0" eb="1">
+      <t>shi shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收复利</t>
+    <rPh sb="0" eb="1">
+      <t>shi shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减免费用</t>
+    <rPh sb="0" eb="1">
+      <t>jian mian fei yong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_repay_plan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repay_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_total - act_total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收总额 - 实收总额</t>
+    <rPh sb="0" eb="1">
+      <t>ying shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong e</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi shou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zong e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_principal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_interest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_penalty_interest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款状态</t>
+    <rPh sb="0" eb="1">
+      <t>huan kuan zhuang t</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应还本金 - 实际已还本金</t>
+    <rPh sb="2" eb="3">
+      <t>ben jin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi huan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ben jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应还利息 - 实际已还利息</t>
+    <rPh sb="0" eb="1">
+      <t>ying huan li xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi huan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>li xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应还罚息 - 实际已还罚息</t>
+    <rPh sb="0" eb="1">
+      <t>ying huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi huan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fa xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应还其他 - 实际已还其他</t>
+    <rPh sb="0" eb="1">
+      <t>ying huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi huan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qi ta</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款状态 0|未还  1|未还清 2|已还清 3|自助还款处理中 4|自助还款处理失败 5|核销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repay_status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款利率</t>
+    <rPh sb="0" eb="1">
+      <t>dai k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li lü</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_apply_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_apply_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grant_quota</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>授予额度</t>
+    <rPh sb="0" eb="1">
+      <t>shou yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>e du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_user_bank_account_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行ID，对应关系？？ @西东</t>
+    <rPh sb="0" eb="1">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui ying guan xi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xi dong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1778,6 +2303,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1787,15 +2321,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1824,8 +2349,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>78396</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>105037</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
@@ -1844,8 +2369,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5727700"/>
-          <a:ext cx="15328900" cy="558800"/>
+          <a:off x="0" y="7705844"/>
+          <a:ext cx="16844210" cy="553452"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1858,13 +2383,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>192696</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>832471</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1896,13 +2421,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>455099</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>531490</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1934,13 +2459,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>268896</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6361077</xdr:colOff>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2234,18 +2759,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC103"/>
+  <dimension ref="A1:AC126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
     <col min="4" max="4" width="93.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -2266,7 +2792,7 @@
       <c r="C2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
@@ -2275,14 +2801,14 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
     </row>
@@ -2303,12 +2829,12 @@
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
@@ -2329,14 +2855,14 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
     </row>
@@ -2360,13 +2886,13 @@
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
     </row>
@@ -2382,13 +2908,13 @@
       </c>
       <c r="D6" s="4"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
     </row>
@@ -2406,13 +2932,13 @@
         <v>140</v>
       </c>
       <c r="K7" s="4"/>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
     </row>
@@ -2426,19 +2952,19 @@
       <c r="C8" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>144</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
     </row>
@@ -2473,16 +2999,16 @@
         <v>143</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
     </row>
     <row r="11" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2491,14 +3017,14 @@
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
     </row>
     <row r="12" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2511,14 +3037,14 @@
         <v>146</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
     </row>
     <row r="13" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2529,14 +3055,14 @@
       <c r="D13" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
     </row>
     <row r="14" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2547,14 +3073,14 @@
       <c r="D14" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
     </row>
     <row r="15" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2563,10 +3089,10 @@
       <c r="B15" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="13" t="s">
         <v>151</v>
       </c>
       <c r="K15" s="11"/>
@@ -2591,18 +3117,18 @@
       <c r="D16" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
     </row>
     <row r="17" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2617,16 +3143,16 @@
       <c r="D17" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
     </row>
     <row r="18" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -2637,16 +3163,16 @@
       <c r="D18" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
     </row>
     <row r="19" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -2659,16 +3185,16 @@
         <v>161</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
     </row>
     <row r="20" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -2679,16 +3205,16 @@
       <c r="D20" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
     </row>
     <row r="21" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -2703,16 +3229,16 @@
       <c r="D21" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
     </row>
     <row r="22" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K22" s="11"/>
@@ -2748,1023 +3274,1175 @@
       <c r="A25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D33" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>225</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>226</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="3" t="str">
+        <f>C42</f>
+        <v>need_other - act_other</v>
+      </c>
+      <c r="D59" s="4" t="str">
+        <f>D42</f>
+        <v>应还其他 - 实际已还其他</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>232</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>243</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>250</v>
+      </c>
+      <c r="B69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>32</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F83" t="s">
         <v>52</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J83" t="s">
         <v>73</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N83" t="s">
         <v>78</v>
       </c>
-      <c r="R60" t="s">
+      <c r="R83" t="s">
         <v>105</v>
       </c>
-      <c r="V60" t="s">
+      <c r="V83" t="s">
         <v>115</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Z83" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B84" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="F61" t="s">
+      <c r="D84" s="4"/>
+      <c r="F84" t="s">
         <v>53</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="4"/>
-      <c r="J61" t="s">
+      <c r="G84" s="8"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="4"/>
+      <c r="J84" t="s">
         <v>74</v>
       </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="4"/>
-      <c r="N61" t="s">
+      <c r="K84" s="8"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="4"/>
+      <c r="N84" t="s">
         <v>48</v>
       </c>
-      <c r="R61" t="s">
+      <c r="R84" t="s">
         <v>106</v>
       </c>
-      <c r="V61" t="s">
+      <c r="V84" t="s">
         <v>49</v>
       </c>
-      <c r="W61" s="8"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" t="s">
+      <c r="W84" s="8"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" t="s">
         <v>120</v>
       </c>
-      <c r="AA61" s="8"/>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="4"/>
-    </row>
-    <row r="62" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="AA84" s="8"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="4"/>
+    </row>
+    <row r="85" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B85" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="F62" s="9" t="s">
+      <c r="D85" s="4"/>
+      <c r="F85" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="4"/>
-      <c r="J62" t="s">
+      <c r="G85" s="8"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="4"/>
+      <c r="J85" t="s">
         <v>75</v>
       </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="4"/>
-      <c r="N62" t="s">
+      <c r="K85" s="8"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="4"/>
+      <c r="N85" t="s">
         <v>98</v>
       </c>
-      <c r="O62" s="8"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" t="s">
+      <c r="O85" s="8"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" t="s">
         <v>107</v>
       </c>
-      <c r="S62" s="8"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="4"/>
-      <c r="V62" t="s">
+      <c r="S85" s="8"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="4"/>
+      <c r="V85" t="s">
         <v>116</v>
       </c>
-      <c r="W62" s="8"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" t="s">
+      <c r="W85" s="8"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" t="s">
         <v>121</v>
       </c>
-      <c r="AA62" s="8"/>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="4"/>
-    </row>
-    <row r="63" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="AA85" s="8"/>
+      <c r="AB85" s="3"/>
+      <c r="AC85" s="4"/>
+    </row>
+    <row r="86" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B86" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="F63" s="9" t="s">
+      <c r="D86" s="4"/>
+      <c r="F86" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="4"/>
-      <c r="J63" t="s">
+      <c r="G86" s="8"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="4"/>
+      <c r="J86" t="s">
         <v>76</v>
       </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="4"/>
-      <c r="N63" t="s">
+      <c r="K86" s="8"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="4"/>
+      <c r="N86" t="s">
         <v>99</v>
       </c>
-      <c r="O63" s="8"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" t="s">
+      <c r="O86" s="8"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" t="s">
         <v>51</v>
       </c>
-      <c r="S63" s="8"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="4"/>
-      <c r="V63" t="s">
+      <c r="S86" s="8"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="4"/>
+      <c r="V86" t="s">
         <v>117</v>
       </c>
-      <c r="W63" s="8"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" t="s">
+      <c r="W86" s="8"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" t="s">
         <v>122</v>
       </c>
-      <c r="AA63" s="8"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="4"/>
-    </row>
-    <row r="64" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="AA86" s="8"/>
+      <c r="AB86" s="3"/>
+      <c r="AC86" s="4"/>
+    </row>
+    <row r="87" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B87" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="F64" s="9" t="s">
+      <c r="D87" s="4"/>
+      <c r="F87" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="4"/>
-      <c r="J64" t="s">
+      <c r="G87" s="8"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="4"/>
+      <c r="J87" t="s">
         <v>77</v>
       </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="4"/>
-      <c r="N64" t="s">
+      <c r="K87" s="8"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="4"/>
+      <c r="N87" t="s">
         <v>51</v>
       </c>
-      <c r="O64" s="8"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" t="s">
+      <c r="O87" s="8"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" t="s">
         <v>22</v>
       </c>
-      <c r="S64" s="8"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="4"/>
-      <c r="V64" t="s">
+      <c r="S87" s="8"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="4"/>
+      <c r="V87" t="s">
         <v>118</v>
       </c>
-      <c r="W64" s="8"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" t="s">
+      <c r="W87" s="8"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" t="s">
         <v>123</v>
       </c>
-      <c r="AA64" s="8"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="4"/>
-    </row>
-    <row r="65" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="AA87" s="8"/>
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="4"/>
+    </row>
+    <row r="88" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B88" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="F65" s="9" t="s">
+      <c r="D88" s="4"/>
+      <c r="F88" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="4"/>
-      <c r="N65" t="s">
+      <c r="G88" s="8"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="4"/>
+      <c r="N88" t="s">
         <v>100</v>
       </c>
-      <c r="O65" s="8"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" t="s">
+      <c r="O88" s="8"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" t="s">
         <v>50</v>
       </c>
-      <c r="S65" s="8"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="4"/>
-    </row>
-    <row r="66" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="S88" s="8"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="4"/>
+    </row>
+    <row r="89" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B89" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F89" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="4"/>
-      <c r="R66" t="s">
+      <c r="G89" s="8"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="4"/>
+      <c r="R89" t="s">
         <v>108</v>
       </c>
-      <c r="S66" s="8"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="4"/>
-    </row>
-    <row r="67" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="S89" s="8"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="4"/>
+    </row>
+    <row r="90" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B90" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F90" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="4"/>
-      <c r="N67" t="s">
+      <c r="G90" s="8"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="4"/>
+      <c r="N90" t="s">
         <v>101</v>
       </c>
-      <c r="R67" t="s">
+      <c r="R90" t="s">
         <v>109</v>
       </c>
-      <c r="S67" s="8"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="4"/>
-    </row>
-    <row r="68" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="S90" s="8"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="4"/>
+    </row>
+    <row r="91" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B91" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D91" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F91" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="4"/>
-      <c r="N68" t="s">
+      <c r="G91" s="8"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="4"/>
+      <c r="N91" t="s">
         <v>99</v>
       </c>
-      <c r="O68" s="8"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" t="s">
+      <c r="O91" s="8"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" t="s">
         <v>110</v>
       </c>
-      <c r="S68" s="8"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="4"/>
-    </row>
-    <row r="69" spans="1:21" ht="33" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="S91" s="8"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="4"/>
+    </row>
+    <row r="92" spans="1:29" ht="33" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B92" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C92" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D92" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F92" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="4"/>
-      <c r="N69" t="s">
+      <c r="G92" s="8"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="4"/>
+      <c r="N92" t="s">
         <v>102</v>
       </c>
-      <c r="O69" s="8"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" t="s">
+      <c r="O92" s="8"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="93" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B93" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="F70" s="9" t="s">
+      <c r="D93" s="4"/>
+      <c r="F93" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="4"/>
-      <c r="N70" t="s">
+      <c r="G93" s="8"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="4"/>
+      <c r="N93" t="s">
         <v>103</v>
       </c>
-      <c r="O70" s="8"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" t="s">
+      <c r="O93" s="8"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" t="s">
         <v>112</v>
       </c>
-      <c r="S70" s="8"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="4"/>
-    </row>
-    <row r="71" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="S93" s="8"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="4"/>
+    </row>
+    <row r="94" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B94" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D71" s="4"/>
-      <c r="F71" s="9" t="s">
+      <c r="D94" s="4"/>
+      <c r="F94" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="4"/>
-      <c r="N71" t="s">
+      <c r="G94" s="8"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="4"/>
+      <c r="N94" t="s">
         <v>104</v>
       </c>
-      <c r="O71" s="8"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" t="s">
+      <c r="O94" s="8"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" t="s">
         <v>22</v>
       </c>
-      <c r="S71" s="8"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="4"/>
-    </row>
-    <row r="72" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="S94" s="8"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="4"/>
+    </row>
+    <row r="95" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>43</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B95" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D72" s="4"/>
-      <c r="F72" s="9" t="s">
+      <c r="D95" s="4"/>
+      <c r="F95" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G72" s="8"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="4"/>
-      <c r="R72" t="s">
+      <c r="G95" s="8"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="4"/>
+      <c r="R95" t="s">
         <v>108</v>
       </c>
-      <c r="S72" s="8"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="4"/>
-    </row>
-    <row r="73" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="S95" s="8"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="4"/>
+    </row>
+    <row r="96" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B96" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D73" s="4"/>
-      <c r="F73" s="9" t="s">
+      <c r="D96" s="4"/>
+      <c r="F96" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="4"/>
-      <c r="R73" t="s">
+      <c r="G96" s="8"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="4"/>
+      <c r="R96" t="s">
         <v>113</v>
       </c>
-      <c r="S73" s="8"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="4"/>
-    </row>
-    <row r="74" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="S96" s="8"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="4"/>
+    </row>
+    <row r="97" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B97" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D74" s="4"/>
-      <c r="F74" s="9" t="s">
+      <c r="D97" s="4"/>
+      <c r="F97" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="4"/>
-      <c r="R74" t="s">
+      <c r="G97" s="8"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="4"/>
+      <c r="R97" t="s">
         <v>114</v>
       </c>
-      <c r="S74" s="8"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="4"/>
-    </row>
-    <row r="75" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="S97" s="8"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="4"/>
+    </row>
+    <row r="98" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B98" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D98" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F98" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="G98" s="8"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B99" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D99" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F99" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="G99" s="8"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>48</v>
       </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="9" t="s">
+      <c r="C100" s="16"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G77" s="8"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="G100" s="8"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="4"/>
+    </row>
+    <row r="101" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>49</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B101" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="9" t="s">
+      <c r="D101" s="4"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G78" s="8"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="G101" s="8"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B102" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="9" t="s">
+      <c r="D102" s="4"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="G102" s="8"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>51</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B103" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D103" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F103" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="G103" s="8"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="4"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="7"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="B108" s="10"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="7"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B109" s="10"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="B110" s="10"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>83</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="7"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="B111" s="10"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="7"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="B112" s="10"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>86</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E117" t="s">
         <v>88</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I117" t="s">
         <v>91</v>
       </c>
-      <c r="J94" s="10"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="7"/>
-      <c r="M94" t="s">
+      <c r="J117" s="10"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="7"/>
+      <c r="M117" t="s">
         <v>92</v>
       </c>
-      <c r="N94" s="10"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="7"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="N117" s="10"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="7"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>87</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="7"/>
-      <c r="E95" t="s">
+      <c r="B118" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E118" t="s">
         <v>89</v>
       </c>
-      <c r="F95" s="10"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="7"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="F118" s="10"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>28</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="7"/>
-      <c r="E96" t="s">
+      <c r="B119" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" t="s">
         <v>90</v>
       </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="7"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="F119" s="10"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="7"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="7"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="B124" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>96</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="7"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="B125" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>97</v>
       </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="7"/>
+      <c r="B126" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>260</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/doc/详情页字段梳理.xlsx
+++ b/doc/详情页字段梳理.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ifeng/Documents/projects/uniloan/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gongshuai/uniloan/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="5780" windowWidth="22620" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="-28320" yWindow="2880" windowWidth="22620" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="285">
   <si>
     <t>进件状态</t>
     <rPh sb="0" eb="1">
@@ -2130,12 +2130,179 @@
     <t>rate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> 不做</t>
+    <rPh sb="1" eb="2">
+      <t>bu zuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做</t>
+    <rPh sb="0" eb="1">
+      <t>bu zuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_lat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有</t>
+    <rPh sb="0" eb="1">
+      <t>mei you</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">没有 </t>
+    <rPh sb="0" eb="1">
+      <t>mei you</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_app_sdk_location_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_app_sdk_contract_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按userID 的 devicid统计</t>
+    <rPh sb="0" eb="1">
+      <t>an</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>tong ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策引擎结果</t>
+    <rPh sb="0" eb="1">
+      <t>jue ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin qing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_core_risk_decesion_result_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_hit_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则命中类型  强制类， 提示类</t>
+    <rPh sb="0" eb="1">
+      <t>gui ze</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming zhong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lei xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qiang zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ti shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">variable_name   join  tb_core_risk_rules on   rule_id    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险变量名称</t>
+    <rPh sb="0" eb="1">
+      <t>feng xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian liang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则执行结果  通过  不通过</t>
+    <rPh sb="0" eb="1">
+      <t>gui ze</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu tong guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2224,6 +2391,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2285,7 +2467,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2321,6 +2503,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2349,8 +2537,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>105037</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>496541</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
@@ -2387,8 +2575,8 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>832471</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6112997</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2425,8 +2613,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>531490</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101791</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -2464,7 +2652,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>6361077</xdr:colOff>
+      <xdr:colOff>3725588</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -2759,19 +2947,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC126"/>
+  <dimension ref="A1:AC134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="59.5" customWidth="1"/>
     <col min="4" max="4" width="93.1640625" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -3702,15 +3893,36 @@
       <c r="N83" t="s">
         <v>78</v>
       </c>
-      <c r="R83" t="s">
+      <c r="R83" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="V83" t="s">
+      <c r="S83" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="T83" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="U83" s="21"/>
+      <c r="V83" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="W83" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="X83" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y83" s="21"/>
+      <c r="Z83" s="21" t="s">
         <v>119</v>
       </c>
+      <c r="AA83" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB83" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC83" s="21"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -3733,26 +3945,31 @@
         <v>74</v>
       </c>
       <c r="K84" s="8"/>
-      <c r="L84" s="3"/>
+      <c r="L84" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="M84" s="4"/>
       <c r="N84" t="s">
         <v>48</v>
       </c>
-      <c r="R84" t="s">
+      <c r="R84" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="V84" t="s">
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="W84" s="8"/>
-      <c r="X84" s="3"/>
-      <c r="Y84" s="4"/>
-      <c r="Z84" t="s">
+      <c r="W84" s="22"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="24"/>
+      <c r="Z84" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="AA84" s="8"/>
-      <c r="AB84" s="3"/>
-      <c r="AC84" s="4"/>
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="24"/>
     </row>
     <row r="85" spans="1:29" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -3774,8 +3991,12 @@
       <c r="J85" t="s">
         <v>75</v>
       </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="3"/>
+      <c r="K85" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="M85" s="4"/>
       <c r="N85" t="s">
         <v>98</v>
@@ -3783,24 +4004,24 @@
       <c r="O85" s="8"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="4"/>
-      <c r="R85" t="s">
+      <c r="R85" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="S85" s="8"/>
-      <c r="T85" s="3"/>
-      <c r="U85" s="4"/>
-      <c r="V85" t="s">
+      <c r="S85" s="22"/>
+      <c r="T85" s="23"/>
+      <c r="U85" s="24"/>
+      <c r="V85" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="W85" s="8"/>
-      <c r="X85" s="3"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" t="s">
+      <c r="W85" s="22"/>
+      <c r="X85" s="23"/>
+      <c r="Y85" s="24"/>
+      <c r="Z85" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="AA85" s="8"/>
-      <c r="AB85" s="3"/>
-      <c r="AC85" s="4"/>
+      <c r="AA85" s="22"/>
+      <c r="AB85" s="23"/>
+      <c r="AC85" s="24"/>
     </row>
     <row r="86" spans="1:29" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -3823,32 +4044,38 @@
         <v>76</v>
       </c>
       <c r="K86" s="8"/>
-      <c r="L86" s="3"/>
+      <c r="L86" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="M86" s="4"/>
       <c r="N86" t="s">
         <v>99</v>
       </c>
-      <c r="O86" s="8"/>
-      <c r="P86" s="3"/>
+      <c r="O86" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="P86" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="Q86" s="4"/>
-      <c r="R86" t="s">
+      <c r="R86" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="S86" s="8"/>
-      <c r="T86" s="3"/>
-      <c r="U86" s="4"/>
-      <c r="V86" t="s">
+      <c r="S86" s="22"/>
+      <c r="T86" s="23"/>
+      <c r="U86" s="24"/>
+      <c r="V86" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="W86" s="8"/>
-      <c r="X86" s="3"/>
-      <c r="Y86" s="4"/>
-      <c r="Z86" t="s">
+      <c r="W86" s="22"/>
+      <c r="X86" s="23"/>
+      <c r="Y86" s="24"/>
+      <c r="Z86" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AA86" s="8"/>
-      <c r="AB86" s="3"/>
-      <c r="AC86" s="4"/>
+      <c r="AA86" s="22"/>
+      <c r="AB86" s="23"/>
+      <c r="AC86" s="24"/>
     </row>
     <row r="87" spans="1:29" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -3871,32 +4098,36 @@
         <v>77</v>
       </c>
       <c r="K87" s="8"/>
-      <c r="L87" s="3"/>
+      <c r="L87" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="M87" s="4"/>
       <c r="N87" t="s">
         <v>51</v>
       </c>
       <c r="O87" s="8"/>
-      <c r="P87" s="3"/>
+      <c r="P87" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="Q87" s="4"/>
-      <c r="R87" t="s">
+      <c r="R87" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="S87" s="8"/>
-      <c r="T87" s="3"/>
-      <c r="U87" s="4"/>
-      <c r="V87" t="s">
+      <c r="S87" s="22"/>
+      <c r="T87" s="23"/>
+      <c r="U87" s="24"/>
+      <c r="V87" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="W87" s="8"/>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="4"/>
-      <c r="Z87" t="s">
+      <c r="W87" s="22"/>
+      <c r="X87" s="23"/>
+      <c r="Y87" s="24"/>
+      <c r="Z87" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="AA87" s="8"/>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="4"/>
+      <c r="AA87" s="22"/>
+      <c r="AB87" s="23"/>
+      <c r="AC87" s="24"/>
     </row>
     <row r="88" spans="1:29" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -3919,14 +4150,16 @@
         <v>100</v>
       </c>
       <c r="O88" s="8"/>
-      <c r="P88" s="3"/>
+      <c r="P88" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="Q88" s="4"/>
-      <c r="R88" t="s">
+      <c r="R88" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="S88" s="8"/>
-      <c r="T88" s="3"/>
-      <c r="U88" s="4"/>
+      <c r="S88" s="22"/>
+      <c r="T88" s="23"/>
+      <c r="U88" s="24"/>
     </row>
     <row r="89" spans="1:29" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -3947,12 +4180,12 @@
       <c r="G89" s="8"/>
       <c r="H89" s="3"/>
       <c r="I89" s="4"/>
-      <c r="R89" t="s">
+      <c r="R89" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="S89" s="8"/>
-      <c r="T89" s="3"/>
-      <c r="U89" s="4"/>
+      <c r="S89" s="22"/>
+      <c r="T89" s="23"/>
+      <c r="U89" s="24"/>
     </row>
     <row r="90" spans="1:29" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -3976,12 +4209,12 @@
       <c r="N90" t="s">
         <v>101</v>
       </c>
-      <c r="R90" t="s">
+      <c r="R90" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="S90" s="8"/>
-      <c r="T90" s="3"/>
-      <c r="U90" s="4"/>
+      <c r="S90" s="22"/>
+      <c r="T90" s="23"/>
+      <c r="U90" s="24"/>
     </row>
     <row r="91" spans="1:29" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -4008,12 +4241,12 @@
       <c r="O91" s="8"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="4"/>
-      <c r="R91" t="s">
+      <c r="R91" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="S91" s="8"/>
-      <c r="T91" s="3"/>
-      <c r="U91" s="4"/>
+      <c r="S91" s="22"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="24"/>
     </row>
     <row r="92" spans="1:29" ht="33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -4037,12 +4270,19 @@
       <c r="N92" t="s">
         <v>102</v>
       </c>
-      <c r="O92" s="8"/>
-      <c r="P92" s="3"/>
+      <c r="O92" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="Q92" s="4"/>
-      <c r="R92" t="s">
+      <c r="R92" s="21" t="s">
         <v>111</v>
       </c>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
     </row>
     <row r="93" spans="1:29" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -4067,12 +4307,12 @@
       <c r="O93" s="8"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="4"/>
-      <c r="R93" t="s">
+      <c r="R93" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="S93" s="8"/>
-      <c r="T93" s="3"/>
-      <c r="U93" s="4"/>
+      <c r="S93" s="22"/>
+      <c r="T93" s="23"/>
+      <c r="U93" s="24"/>
     </row>
     <row r="94" spans="1:29" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -4095,14 +4335,16 @@
         <v>104</v>
       </c>
       <c r="O94" s="8"/>
-      <c r="P94" s="3"/>
+      <c r="P94" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="Q94" s="4"/>
-      <c r="R94" t="s">
+      <c r="R94" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="S94" s="8"/>
-      <c r="T94" s="3"/>
-      <c r="U94" s="4"/>
+      <c r="S94" s="22"/>
+      <c r="T94" s="23"/>
+      <c r="U94" s="24"/>
     </row>
     <row r="95" spans="1:29" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -4121,12 +4363,12 @@
       <c r="G95" s="8"/>
       <c r="H95" s="3"/>
       <c r="I95" s="4"/>
-      <c r="R95" t="s">
+      <c r="R95" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="S95" s="8"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="4"/>
+      <c r="S95" s="22"/>
+      <c r="T95" s="23"/>
+      <c r="U95" s="24"/>
     </row>
     <row r="96" spans="1:29" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -4145,12 +4387,12 @@
       <c r="G96" s="8"/>
       <c r="H96" s="3"/>
       <c r="I96" s="4"/>
-      <c r="R96" t="s">
+      <c r="R96" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="S96" s="8"/>
-      <c r="T96" s="3"/>
-      <c r="U96" s="4"/>
+      <c r="S96" s="22"/>
+      <c r="T96" s="23"/>
+      <c r="U96" s="24"/>
     </row>
     <row r="97" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -4169,12 +4411,12 @@
       <c r="G97" s="8"/>
       <c r="H97" s="3"/>
       <c r="I97" s="4"/>
-      <c r="R97" t="s">
+      <c r="R97" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="S97" s="8"/>
-      <c r="T97" s="3"/>
-      <c r="U97" s="4"/>
+      <c r="S97" s="22"/>
+      <c r="T97" s="23"/>
+      <c r="U97" s="24"/>
     </row>
     <row r="98" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -4345,6 +4587,9 @@
       <c r="E117" t="s">
         <v>88</v>
       </c>
+      <c r="F117" t="s">
+        <v>275</v>
+      </c>
       <c r="I117" t="s">
         <v>91</v>
       </c>
@@ -4355,7 +4600,9 @@
         <v>92</v>
       </c>
       <c r="N117" s="10"/>
-      <c r="O117" s="6"/>
+      <c r="O117" s="6" t="s">
+        <v>274</v>
+      </c>
       <c r="P117" s="7"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
@@ -4374,7 +4621,9 @@
       <c r="E118" t="s">
         <v>89</v>
       </c>
-      <c r="F118" s="10"/>
+      <c r="F118" s="26" t="s">
+        <v>276</v>
+      </c>
       <c r="G118" s="6"/>
       <c r="H118" s="7"/>
     </row>
@@ -4392,7 +4641,9 @@
       <c r="E119" t="s">
         <v>90</v>
       </c>
-      <c r="F119" s="10"/>
+      <c r="F119" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="G119" s="6"/>
       <c r="H119" s="7"/>
     </row>
@@ -4442,6 +4693,38 @@
       </c>
       <c r="D126" s="7" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>278</v>
+      </c>
+      <c r="C132" t="s">
+        <v>279</v>
+      </c>
+      <c r="D132" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>280</v>
+      </c>
+      <c r="D133" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>282</v>
+      </c>
+      <c r="D134" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/doc/详情页字段梳理.xlsx
+++ b/doc/详情页字段梳理.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gongshuai/uniloan/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-28320" yWindow="2880" windowWidth="22620" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="291">
   <si>
     <t>进件状态</t>
     <rPh sb="0" eb="1">
@@ -2297,12 +2289,36 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">tb_user_citizen_identity_card_info </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tb_user_citizen_identity_card_info </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_apply_material_info 用 apply_id + (info_type = 0) 查 info_id, 再到 tb_user_citizen_identity_card_info 用 info_id 查， 得 pic_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_apply_material_info 用 apply_id + (info_type = 0) 查 info_id, 再到 tb_user_citizen_identity_card_info 用 info_id 查， 得 pic_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_user_employment_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_apply_material_info 用 apply_id + (info_type = 3) 查 info_id, 再到 tb_user_employment_info 用 info_id 查， 得 work_pic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2467,7 +2483,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2494,6 +2510,12 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2503,12 +2525,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2537,10 +2554,10 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>496541</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1413233</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1933</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2575,8 +2592,8 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6112997</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10646324</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2613,8 +2630,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>101791</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1018483</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -2651,8 +2668,8 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3725588</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8258915</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -2727,7 +2744,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2762,7 +2779,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2939,7 +2956,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2949,23 +2966,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="133" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="3" width="59.5" customWidth="1"/>
-    <col min="4" max="4" width="93.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="43.625" customWidth="1"/>
+    <col min="3" max="3" width="140.625" customWidth="1"/>
+    <col min="4" max="4" width="93.125" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" customWidth="1"/>
+    <col min="15" max="15" width="25.625" customWidth="1"/>
+    <col min="16" max="16" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2973,7 +2990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="57">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2992,18 +3009,18 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="15.95" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3020,16 +3037,16 @@
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="15.95" customHeight="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3046,18 +3063,18 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="15.95" customHeight="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3077,17 +3094,17 @@
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="15.95" customHeight="1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3099,17 +3116,17 @@
       </c>
       <c r="D6" s="4"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="15.95" customHeight="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3123,17 +3140,17 @@
         <v>140</v>
       </c>
       <c r="K7" s="4"/>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:20" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="48.95" customHeight="1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3149,17 +3166,17 @@
       <c r="K8" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
     </row>
-    <row r="9" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="15.95" customHeight="1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3179,7 +3196,7 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="15.95" customHeight="1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3190,34 +3207,34 @@
         <v>143</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-    </row>
-    <row r="11" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.95" customHeight="1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-    </row>
-    <row r="12" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.95" customHeight="1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3228,16 +3245,16 @@
         <v>146</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-    </row>
-    <row r="13" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.95" customHeight="1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3246,16 +3263,16 @@
       <c r="D13" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-    </row>
-    <row r="14" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.95" customHeight="1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3264,16 +3281,16 @@
       <c r="D14" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-    </row>
-    <row r="15" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+    </row>
+    <row r="15" spans="1:20" ht="85.5">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3295,7 +3312,7 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="15.95" customHeight="1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3308,20 +3325,20 @@
       <c r="D16" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-    </row>
-    <row r="17" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.95" customHeight="1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3334,18 +3351,18 @@
       <c r="D17" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-    </row>
-    <row r="18" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.95" customHeight="1">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3354,18 +3371,18 @@
       <c r="D18" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-    </row>
-    <row r="19" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+    </row>
+    <row r="19" spans="1:20" ht="15.95" customHeight="1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3376,18 +3393,18 @@
         <v>161</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-    </row>
-    <row r="20" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+    </row>
+    <row r="20" spans="1:20" ht="15.95" customHeight="1">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3396,18 +3413,18 @@
       <c r="D20" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-    </row>
-    <row r="21" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+    </row>
+    <row r="21" spans="1:20" ht="15.95" customHeight="1">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3420,18 +3437,18 @@
       <c r="D21" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-    </row>
-    <row r="22" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.95" customHeight="1">
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -3441,7 +3458,7 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="15.95" customHeight="1">
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -3451,7 +3468,7 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
     </row>
-    <row r="24" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="15.95" customHeight="1">
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
@@ -3461,7 +3478,7 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3475,7 +3492,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="28.5">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3489,7 +3506,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -3503,7 +3520,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -3517,7 +3534,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>205</v>
       </c>
@@ -3531,7 +3548,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -3541,7 +3558,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>203</v>
       </c>
@@ -3555,7 +3572,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>204</v>
       </c>
@@ -3567,7 +3584,7 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>206</v>
       </c>
@@ -3581,7 +3598,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>207</v>
       </c>
@@ -3595,7 +3612,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>208</v>
       </c>
@@ -3609,7 +3626,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>209</v>
       </c>
@@ -3619,7 +3636,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>210</v>
       </c>
@@ -3629,7 +3646,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -3639,7 +3656,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>212</v>
       </c>
@@ -3653,13 +3670,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" s="17" customFormat="1"/>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -3671,7 +3688,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>224</v>
       </c>
@@ -3683,7 +3700,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>225</v>
       </c>
@@ -3697,7 +3714,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>226</v>
       </c>
@@ -3709,7 +3726,7 @@
       </c>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>227</v>
       </c>
@@ -3721,7 +3738,7 @@
       </c>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -3731,7 +3748,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>228</v>
       </c>
@@ -3743,7 +3760,7 @@
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>230</v>
       </c>
@@ -3753,7 +3770,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>231</v>
       </c>
@@ -3763,7 +3780,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>212</v>
       </c>
@@ -3779,7 +3796,7 @@
         <v>应还其他 - 实际已还其他</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>232</v>
       </c>
@@ -3787,7 +3804,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19">
       <c r="A68" t="s">
         <v>243</v>
       </c>
@@ -3801,7 +3818,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19">
       <c r="A69" t="s">
         <v>250</v>
       </c>
@@ -3812,7 +3829,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3833,7 +3850,7 @@
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -3854,7 +3871,7 @@
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3875,12 +3892,12 @@
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29">
       <c r="A82" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -3893,38 +3910,38 @@
       <c r="N83" t="s">
         <v>78</v>
       </c>
-      <c r="R83" s="21" t="s">
+      <c r="R83" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="S83" s="21" t="s">
+      <c r="S83" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="T83" s="21" t="s">
+      <c r="T83" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="U83" s="21"/>
-      <c r="V83" s="21" t="s">
+      <c r="U83" s="18"/>
+      <c r="V83" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="W83" s="21" t="s">
+      <c r="W83" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="X83" s="21" t="s">
+      <c r="X83" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="Y83" s="21"/>
-      <c r="Z83" s="21" t="s">
+      <c r="Y83" s="18"/>
+      <c r="Z83" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="AA83" s="21" t="s">
+      <c r="AA83" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="AB83" s="21" t="s">
+      <c r="AB83" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="AC83" s="21"/>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC83" s="18"/>
+    </row>
+    <row r="84" spans="1:29">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -3952,26 +3969,26 @@
       <c r="N84" t="s">
         <v>48</v>
       </c>
-      <c r="R84" s="21" t="s">
+      <c r="R84" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="21"/>
-      <c r="V84" s="21" t="s">
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
+      <c r="U84" s="18"/>
+      <c r="V84" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="W84" s="22"/>
-      <c r="X84" s="23"/>
-      <c r="Y84" s="24"/>
-      <c r="Z84" s="21" t="s">
+      <c r="W84" s="19"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="23"/>
-      <c r="AC84" s="24"/>
-    </row>
-    <row r="85" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="AA84" s="19"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="21"/>
+    </row>
+    <row r="85" spans="1:29" ht="17.25">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -3991,7 +4008,7 @@
       <c r="J85" t="s">
         <v>75</v>
       </c>
-      <c r="K85" s="25" t="s">
+      <c r="K85" s="22" t="s">
         <v>268</v>
       </c>
       <c r="L85" s="3" t="s">
@@ -4004,26 +4021,26 @@
       <c r="O85" s="8"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="4"/>
-      <c r="R85" s="21" t="s">
+      <c r="R85" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="S85" s="22"/>
-      <c r="T85" s="23"/>
-      <c r="U85" s="24"/>
-      <c r="V85" s="21" t="s">
+      <c r="S85" s="19"/>
+      <c r="T85" s="20"/>
+      <c r="U85" s="21"/>
+      <c r="V85" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="W85" s="22"/>
-      <c r="X85" s="23"/>
-      <c r="Y85" s="24"/>
-      <c r="Z85" s="21" t="s">
+      <c r="W85" s="19"/>
+      <c r="X85" s="20"/>
+      <c r="Y85" s="21"/>
+      <c r="Z85" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="AA85" s="22"/>
-      <c r="AB85" s="23"/>
-      <c r="AC85" s="24"/>
-    </row>
-    <row r="86" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="AA85" s="19"/>
+      <c r="AB85" s="20"/>
+      <c r="AC85" s="21"/>
+    </row>
+    <row r="86" spans="1:29" ht="17.25">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -4051,33 +4068,33 @@
       <c r="N86" t="s">
         <v>99</v>
       </c>
-      <c r="O86" s="25" t="s">
+      <c r="O86" s="22" t="s">
         <v>190</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>270</v>
       </c>
       <c r="Q86" s="4"/>
-      <c r="R86" s="21" t="s">
+      <c r="R86" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="S86" s="22"/>
-      <c r="T86" s="23"/>
-      <c r="U86" s="24"/>
-      <c r="V86" s="21" t="s">
+      <c r="S86" s="19"/>
+      <c r="T86" s="20"/>
+      <c r="U86" s="21"/>
+      <c r="V86" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="W86" s="22"/>
-      <c r="X86" s="23"/>
-      <c r="Y86" s="24"/>
-      <c r="Z86" s="21" t="s">
+      <c r="W86" s="19"/>
+      <c r="X86" s="20"/>
+      <c r="Y86" s="21"/>
+      <c r="Z86" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="AA86" s="22"/>
-      <c r="AB86" s="23"/>
-      <c r="AC86" s="24"/>
-    </row>
-    <row r="87" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="AA86" s="19"/>
+      <c r="AB86" s="20"/>
+      <c r="AC86" s="21"/>
+    </row>
+    <row r="87" spans="1:29" ht="17.25">
       <c r="A87" t="s">
         <v>35</v>
       </c>
@@ -4110,26 +4127,26 @@
         <v>269</v>
       </c>
       <c r="Q87" s="4"/>
-      <c r="R87" s="21" t="s">
+      <c r="R87" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="S87" s="22"/>
-      <c r="T87" s="23"/>
-      <c r="U87" s="24"/>
-      <c r="V87" s="21" t="s">
+      <c r="S87" s="19"/>
+      <c r="T87" s="20"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="W87" s="22"/>
-      <c r="X87" s="23"/>
-      <c r="Y87" s="24"/>
-      <c r="Z87" s="21" t="s">
+      <c r="W87" s="19"/>
+      <c r="X87" s="20"/>
+      <c r="Y87" s="21"/>
+      <c r="Z87" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="AA87" s="22"/>
-      <c r="AB87" s="23"/>
-      <c r="AC87" s="24"/>
-    </row>
-    <row r="88" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="AA87" s="19"/>
+      <c r="AB87" s="20"/>
+      <c r="AC87" s="21"/>
+    </row>
+    <row r="88" spans="1:29" ht="17.25">
       <c r="A88" t="s">
         <v>36</v>
       </c>
@@ -4154,14 +4171,14 @@
         <v>192</v>
       </c>
       <c r="Q88" s="4"/>
-      <c r="R88" s="21" t="s">
+      <c r="R88" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="S88" s="22"/>
-      <c r="T88" s="23"/>
-      <c r="U88" s="24"/>
-    </row>
-    <row r="89" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="S88" s="19"/>
+      <c r="T88" s="20"/>
+      <c r="U88" s="21"/>
+    </row>
+    <row r="89" spans="1:29" ht="17.25">
       <c r="A89" t="s">
         <v>37</v>
       </c>
@@ -4180,14 +4197,14 @@
       <c r="G89" s="8"/>
       <c r="H89" s="3"/>
       <c r="I89" s="4"/>
-      <c r="R89" s="21" t="s">
+      <c r="R89" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="S89" s="22"/>
-      <c r="T89" s="23"/>
-      <c r="U89" s="24"/>
-    </row>
-    <row r="90" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="S89" s="19"/>
+      <c r="T89" s="20"/>
+      <c r="U89" s="21"/>
+    </row>
+    <row r="90" spans="1:29" ht="17.25">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -4209,14 +4226,14 @@
       <c r="N90" t="s">
         <v>101</v>
       </c>
-      <c r="R90" s="21" t="s">
+      <c r="R90" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="S90" s="22"/>
-      <c r="T90" s="23"/>
-      <c r="U90" s="24"/>
-    </row>
-    <row r="91" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="S90" s="19"/>
+      <c r="T90" s="20"/>
+      <c r="U90" s="21"/>
+    </row>
+    <row r="91" spans="1:29" ht="17.25">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -4241,14 +4258,14 @@
       <c r="O91" s="8"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="4"/>
-      <c r="R91" s="21" t="s">
+      <c r="R91" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="S91" s="22"/>
-      <c r="T91" s="23"/>
-      <c r="U91" s="24"/>
-    </row>
-    <row r="92" spans="1:29" ht="33" x14ac:dyDescent="0.25">
+      <c r="S91" s="19"/>
+      <c r="T91" s="20"/>
+      <c r="U91" s="21"/>
+    </row>
+    <row r="92" spans="1:29" ht="30.75">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -4270,21 +4287,21 @@
       <c r="N92" t="s">
         <v>102</v>
       </c>
-      <c r="O92" s="25" t="s">
+      <c r="O92" s="22" t="s">
         <v>271</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>272</v>
       </c>
       <c r="Q92" s="4"/>
-      <c r="R92" s="21" t="s">
+      <c r="R92" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
-      <c r="U92" s="21"/>
-    </row>
-    <row r="93" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+    </row>
+    <row r="93" spans="1:29" ht="17.25">
       <c r="A93" t="s">
         <v>41</v>
       </c>
@@ -4307,14 +4324,14 @@
       <c r="O93" s="8"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="4"/>
-      <c r="R93" s="21" t="s">
+      <c r="R93" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="S93" s="22"/>
-      <c r="T93" s="23"/>
-      <c r="U93" s="24"/>
-    </row>
-    <row r="94" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="S93" s="19"/>
+      <c r="T93" s="20"/>
+      <c r="U93" s="21"/>
+    </row>
+    <row r="94" spans="1:29" ht="17.25">
       <c r="A94" t="s">
         <v>42</v>
       </c>
@@ -4339,14 +4356,14 @@
         <v>266</v>
       </c>
       <c r="Q94" s="4"/>
-      <c r="R94" s="21" t="s">
+      <c r="R94" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="S94" s="22"/>
-      <c r="T94" s="23"/>
-      <c r="U94" s="24"/>
-    </row>
-    <row r="95" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="S94" s="19"/>
+      <c r="T94" s="20"/>
+      <c r="U94" s="21"/>
+    </row>
+    <row r="95" spans="1:29" ht="17.25">
       <c r="A95" t="s">
         <v>43</v>
       </c>
@@ -4363,14 +4380,14 @@
       <c r="G95" s="8"/>
       <c r="H95" s="3"/>
       <c r="I95" s="4"/>
-      <c r="R95" s="21" t="s">
+      <c r="R95" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="S95" s="22"/>
-      <c r="T95" s="23"/>
-      <c r="U95" s="24"/>
-    </row>
-    <row r="96" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="S95" s="19"/>
+      <c r="T95" s="20"/>
+      <c r="U95" s="21"/>
+    </row>
+    <row r="96" spans="1:29" ht="17.25">
       <c r="A96" t="s">
         <v>44</v>
       </c>
@@ -4387,14 +4404,14 @@
       <c r="G96" s="8"/>
       <c r="H96" s="3"/>
       <c r="I96" s="4"/>
-      <c r="R96" s="21" t="s">
+      <c r="R96" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="S96" s="22"/>
-      <c r="T96" s="23"/>
-      <c r="U96" s="24"/>
-    </row>
-    <row r="97" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="S96" s="19"/>
+      <c r="T96" s="20"/>
+      <c r="U96" s="21"/>
+    </row>
+    <row r="97" spans="1:21" ht="17.25">
       <c r="A97" t="s">
         <v>45</v>
       </c>
@@ -4411,14 +4428,14 @@
       <c r="G97" s="8"/>
       <c r="H97" s="3"/>
       <c r="I97" s="4"/>
-      <c r="R97" s="21" t="s">
+      <c r="R97" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="S97" s="22"/>
-      <c r="T97" s="23"/>
-      <c r="U97" s="24"/>
-    </row>
-    <row r="98" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="S97" s="19"/>
+      <c r="T97" s="20"/>
+      <c r="U97" s="21"/>
+    </row>
+    <row r="98" spans="1:21" ht="17.25">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -4438,7 +4455,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="17.25">
       <c r="A99" t="s">
         <v>47</v>
       </c>
@@ -4458,7 +4475,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="17.25">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -4472,7 +4489,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="17.25">
       <c r="A101" t="s">
         <v>49</v>
       </c>
@@ -4491,7 +4508,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="17.25">
       <c r="A102" t="s">
         <v>50</v>
       </c>
@@ -4510,7 +4527,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="17.25">
       <c r="A103" t="s">
         <v>51</v>
       </c>
@@ -4530,36 +4547,48 @@
       <c r="H103" s="3"/>
       <c r="I103" s="4"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21">
       <c r="A107" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21">
       <c r="A108" t="s">
         <v>80</v>
       </c>
-      <c r="B108" s="10"/>
-      <c r="C108" s="6"/>
+      <c r="B108" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21">
       <c r="A109" t="s">
         <v>81</v>
       </c>
-      <c r="B109" s="10"/>
-      <c r="C109" s="6"/>
+      <c r="B109" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>288</v>
+      </c>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21">
       <c r="A110" t="s">
         <v>82</v>
       </c>
-      <c r="B110" s="10"/>
-      <c r="C110" s="6"/>
+      <c r="B110" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -4567,7 +4596,7 @@
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21">
       <c r="A112" t="s">
         <v>84</v>
       </c>
@@ -4575,12 +4604,12 @@
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
         <v>86</v>
       </c>
@@ -4605,7 +4634,7 @@
       </c>
       <c r="P117" s="7"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -4621,13 +4650,13 @@
       <c r="E118" t="s">
         <v>89</v>
       </c>
-      <c r="F118" s="26" t="s">
+      <c r="F118" s="23" t="s">
         <v>276</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -4641,23 +4670,23 @@
       <c r="E119" t="s">
         <v>90</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="23" t="s">
         <v>148</v>
       </c>
       <c r="G119" s="6"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16">
       <c r="A122" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16">
       <c r="A123" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16">
       <c r="A124" t="s">
         <v>95</v>
       </c>
@@ -4669,7 +4698,7 @@
       </c>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16">
       <c r="A125" t="s">
         <v>96</v>
       </c>
@@ -4681,7 +4710,7 @@
       </c>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16">
       <c r="A126" t="s">
         <v>97</v>
       </c>
@@ -4695,12 +4724,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="B132" t="s">
         <v>278</v>
       </c>
@@ -4711,7 +4740,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="C133" t="s">
         <v>280</v>
       </c>
@@ -4719,7 +4748,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="C134" t="s">
         <v>282</v>
       </c>
@@ -4740,6 +4769,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>